--- a/assets/files/A6.xlsx
+++ b/assets/files/A6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9816" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -287,11 +287,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,1131 +600,1131 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C2" sqref="C2:K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="5"/>
-    <col min="8" max="8" width="8.85546875" style="5"/>
-    <col min="11" max="11" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="11" max="11" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>6.0301507537688446</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>93.969849246231149</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>199</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>7.9787234042553195</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>92.021276595744681</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>188</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>6.9767441860465116</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="5">
         <v>93.023255813953483</v>
       </c>
       <c r="K2" s="6">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>8.4677419354838701</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>91.532258064516128</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>248</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>100</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>123</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>5.6603773584905657</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="5">
         <v>94.339622641509436</v>
       </c>
       <c r="K3" s="6">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>16.92650334075724</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>83.073496659242764</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>449</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>12.048192771084338</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>87.951807228915669</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>249</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>15.18624641833811</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <v>84.813753581661885</v>
       </c>
       <c r="K4" s="6">
         <v>698</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>2.5316455696202533</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>97.468354430379748</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>79</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>2.5179856115107913</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>97.482014388489205</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>278</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>2.5210084033613445</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="5">
         <v>97.47899159663865</v>
       </c>
       <c r="K5" s="6">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>27.419354838709676</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>72.58064516129032</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>186</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>18.018018018018019</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>81.981981981981988</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>111</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>23.905723905723907</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="5">
         <v>76.094276094276097</v>
       </c>
       <c r="K6" s="6">
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>17.010309278350515</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>82.989690721649481</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>194</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>10.328638497652582</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>89.671361502347423</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>213</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>13.513513513513514</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>86.486486486486484</v>
       </c>
       <c r="K7" s="6">
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>4.6511627906976747</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>95.348837209302332</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>43</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>8.2568807339449535</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>91.743119266055047</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>327</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>7.8378378378378377</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>92.162162162162161</v>
       </c>
       <c r="K8" s="6">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>19.512195121951219</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>80.487804878048777</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>246</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>11.510791366906474</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>88.489208633093526</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>139</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>16.623376623376622</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="5">
         <v>83.376623376623371</v>
       </c>
       <c r="K9" s="6">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>10.344827586206897</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>89.65517241379311</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>87</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>3.9285714285714284</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>96.071428571428569</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>280</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>5.4495912806539506</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="5">
         <v>94.550408719346052</v>
       </c>
       <c r="K10" s="6">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>93</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>200</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>1.6574585635359116</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>98.342541436464089</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>181</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>4.4619422572178475</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="5">
         <v>95.538057742782158</v>
       </c>
       <c r="K11" s="6">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>3.5874439461883409</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>96.412556053811656</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>223</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>5.2631578947368425</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>94.736842105263165</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>152</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>4.2666666666666666</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <v>95.733333333333334</v>
       </c>
       <c r="K12" s="6">
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>18.025751072961373</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>81.97424892703863</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>233</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <v>14.953271028037383</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>85.046728971962622</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>107</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <v>17.058823529411764</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="5">
         <v>82.941176470588232</v>
       </c>
       <c r="K13" s="6">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>17.073170731707318</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>82.926829268292678</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>123</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>17.741935483870968</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>82.258064516129039</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>248</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="5">
         <v>17.520215633423181</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="5">
         <v>82.479784366576823</v>
       </c>
       <c r="K14" s="6">
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>6.25</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>93.75</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>48</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="5">
         <v>42.433234421364986</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>57.566765578635014</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>337</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="5">
         <v>37.922077922077925</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="5">
         <v>62.077922077922075</v>
       </c>
       <c r="K15" s="6">
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>4.666666666666667</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>95.333333333333329</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>150</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>11.864406779661017</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>88.13559322033899</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>236</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>9.0673575129533681</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>90.932642487046635</v>
       </c>
       <c r="K16" s="6">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>0</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="5">
         <v>5.5118110236220472</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>94.488188976377955</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>381</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>5.5118110236220472</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="5">
         <v>94.488188976377955</v>
       </c>
       <c r="K17" s="6">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>10.256410256410257</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>89.743589743589737</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>39</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="5">
         <v>5.6047197640117998</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>94.395280235988196</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <v>339</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="5">
         <v>6.0846560846560847</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="5">
         <v>93.915343915343911</v>
       </c>
       <c r="K18" s="6">
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>100</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>173</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <v>0</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>100</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <v>183</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="5">
         <v>100</v>
       </c>
       <c r="K19" s="6">
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>0</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>100</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>33</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="5">
         <v>4.0650406504065044</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>95.934959349593498</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <v>369</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="5">
         <v>3.7313432835820897</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="5">
         <v>96.268656716417908</v>
       </c>
       <c r="K20" s="6">
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>10.344827586206897</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>89.65517241379311</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>203</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="5">
         <v>11.666666666666666</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>88.333333333333329</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <v>180</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="5">
         <v>10.966057441253264</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="5">
         <v>89.03394255874673</v>
       </c>
       <c r="K21" s="6">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>16.76300578034682</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>83.236994219653184</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <v>173</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="5">
         <v>9.3137254901960791</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>90.686274509803923</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="6">
         <v>204</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="5">
         <v>12.73209549071618</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="5">
         <v>87.267904509283824</v>
       </c>
       <c r="K22" s="6">
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>11.702127659574469</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>88.297872340425528</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>188</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="5">
         <v>11.794871794871796</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>88.205128205128204</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <v>195</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <v>11.74934725848564</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="5">
         <v>88.250652741514358</v>
       </c>
       <c r="K23" s="6">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>0.94043887147335425</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>99.059561128526653</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>319</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="5">
         <v>4.838709677419355</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="5">
         <v>95.161290322580641</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="6">
         <v>62</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="5">
         <v>1.5748031496062993</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="5">
         <v>98.425196850393704</v>
       </c>
       <c r="K24" s="6">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>19.680851063829788</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>80.319148936170208</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6">
         <v>188</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="5">
         <v>6.25</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <v>93.75</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="6">
         <v>192</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="5">
         <v>12.894736842105264</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="5">
         <v>87.10526315789474</v>
       </c>
       <c r="K25" s="6">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="5">
         <v>4.852686308492201</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>95.147313691507804</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="6">
         <v>577</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="5">
         <v>7.4019245003700966</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="5">
         <v>92.5980754996299</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="6">
         <v>1351</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="5">
         <v>6.6390041493775938</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="5">
         <v>93.360995850622402</v>
       </c>
       <c r="K26" s="6">
         <v>1928</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <v>1.5384615384615385</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>98.461538461538467</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="6">
         <v>130</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="5">
         <v>5.3742802303262955</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="5">
         <v>94.625719769673708</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="6">
         <v>521</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="5">
         <v>4.6082949308755756</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="5">
         <v>95.391705069124427</v>
       </c>
       <c r="K27" s="6">
         <v>651</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="5">
         <v>8.5271317829457356</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>91.47286821705427</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="6">
         <v>129</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="5">
         <v>7.4468085106382977</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="5">
         <v>92.553191489361708</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="6">
         <v>188</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="5">
         <v>7.8864353312302837</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="5">
         <v>92.113564668769712</v>
       </c>
       <c r="K28" s="6">
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="5">
         <v>12.033195020746888</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>87.966804979253112</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="6">
         <v>241</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
         <v>12.295081967213115</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="5">
         <v>87.704918032786878</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="6">
         <v>122</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="5">
         <v>12.121212121212121</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="5">
         <v>87.878787878787875</v>
       </c>
       <c r="K29" s="6">
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="5">
         <v>4.5161290322580649</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>95.483870967741936</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="6">
         <v>155</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="5">
         <v>5.1724137931034484</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
         <v>94.827586206896555</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="6">
         <v>232</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="5">
         <v>4.909560723514212</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="5">
         <v>95.090439276485782</v>
       </c>
       <c r="K30" s="6">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="5">
         <v>14.414414414414415</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>85.585585585585591</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="6">
         <v>111</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="5">
         <v>6.9852941176470589</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="5">
         <v>93.014705882352942</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="6">
         <v>272</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="5">
         <v>9.1383812010443872</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="5">
         <v>90.861618798955618</v>
       </c>
       <c r="K31" s="6">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="5">
         <v>13.333333333333334</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>86.666666666666671</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="6">
         <v>15</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="5">
         <v>8.310249307479225</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="5">
         <v>91.689750692520775</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="6">
         <v>361</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="5">
         <v>8.5106382978723403</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="5">
         <v>91.489361702127653</v>
       </c>
       <c r="K32" s="6">
